--- a/src/recources/ülkeler.xlsx
+++ b/src/recources/ülkeler.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects-1\batch59Junit\src\recources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DA6B12-70A9-4E10-A67A-BA99DB0F2F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7F06C5-868D-47C6-A308-A55B50D7490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="418">
   <si>
     <t>No</t>
   </si>
@@ -1277,14 +1278,17 @@
     <t>Harare</t>
   </si>
   <si>
-    <t>Tüm Dünya
-Toplam Ülke/Devlet Sayısı :</t>
+    <t>tekrarulke</t>
+  </si>
+  <si>
+    <t>Nufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1599,20 +1603,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="49.375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="58.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="49.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1622,8 +1627,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1633,8 +1644,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.5E7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1644,8 +1661,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,8 +1675,11 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1666,8 +1689,11 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1677,8 +1703,11 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1688,8 +1717,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1699,8 +1731,11 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1710,8 +1745,11 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1721,8 +1759,14 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>250000.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1732,8 +1776,11 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1743,8 +1790,11 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1754,8 +1804,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1765,8 +1818,11 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1776,8 +1832,14 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="n">
+        <v>250000.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1787,8 +1849,11 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1798,8 +1863,11 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1809,8 +1877,11 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1820,8 +1891,11 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1831,8 +1905,11 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1842,8 +1919,11 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1853,8 +1933,11 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1864,8 +1947,11 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1875,8 +1961,11 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1886,8 +1975,11 @@
       <c r="C25" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1897,8 +1989,11 @@
       <c r="C26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1908,8 +2003,11 @@
       <c r="C27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1919,8 +2017,11 @@
       <c r="C28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1930,8 +2031,11 @@
       <c r="C29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1941,8 +2045,11 @@
       <c r="C30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1952,8 +2059,11 @@
       <c r="C31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1963,8 +2073,11 @@
       <c r="C32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1974,8 +2087,11 @@
       <c r="C33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1985,8 +2101,11 @@
       <c r="C34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1996,8 +2115,11 @@
       <c r="C35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2007,8 +2129,11 @@
       <c r="C36" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2018,8 +2143,11 @@
       <c r="C37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2029,8 +2157,11 @@
       <c r="C38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2040,8 +2171,11 @@
       <c r="C39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2051,8 +2185,11 @@
       <c r="C40" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2062,8 +2199,11 @@
       <c r="C41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2073,8 +2213,11 @@
       <c r="C42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2084,8 +2227,11 @@
       <c r="C43" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2095,8 +2241,11 @@
       <c r="C44" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2106,8 +2255,11 @@
       <c r="C45" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2117,8 +2269,11 @@
       <c r="C46" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2128,8 +2283,11 @@
       <c r="C47" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2139,8 +2297,11 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2150,8 +2311,11 @@
       <c r="C49" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2161,8 +2325,11 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2172,8 +2339,11 @@
       <c r="C51" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2183,8 +2353,11 @@
       <c r="C52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2194,8 +2367,11 @@
       <c r="C53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2205,8 +2381,11 @@
       <c r="C54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2216,8 +2395,11 @@
       <c r="C55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2227,8 +2409,11 @@
       <c r="C56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2238,8 +2423,11 @@
       <c r="C57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2249,8 +2437,11 @@
       <c r="C58" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2260,8 +2451,11 @@
       <c r="C59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2271,8 +2465,11 @@
       <c r="C60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2282,8 +2479,11 @@
       <c r="C61" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2293,8 +2493,11 @@
       <c r="C62" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2304,8 +2507,11 @@
       <c r="C63" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2315,8 +2521,11 @@
       <c r="C64" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2326,8 +2535,11 @@
       <c r="C65" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2337,8 +2549,11 @@
       <c r="C66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2348,8 +2563,11 @@
       <c r="C67" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2359,8 +2577,11 @@
       <c r="C68" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2370,8 +2591,11 @@
       <c r="C69" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2381,8 +2605,11 @@
       <c r="C70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2392,8 +2619,11 @@
       <c r="C71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2403,8 +2633,11 @@
       <c r="C72" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2414,8 +2647,11 @@
       <c r="C73" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2425,8 +2661,11 @@
       <c r="C74" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2436,8 +2675,11 @@
       <c r="C75" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2447,8 +2689,11 @@
       <c r="C76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2458,8 +2703,11 @@
       <c r="C77" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2469,8 +2717,11 @@
       <c r="C78" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2480,8 +2731,11 @@
       <c r="C79" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2491,8 +2745,11 @@
       <c r="C80" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2502,8 +2759,11 @@
       <c r="C81" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2513,8 +2773,11 @@
       <c r="C82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2524,8 +2787,11 @@
       <c r="C83" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2535,8 +2801,11 @@
       <c r="C84" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2546,8 +2815,11 @@
       <c r="C85" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2557,8 +2829,11 @@
       <c r="C86" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2568,8 +2843,11 @@
       <c r="C87" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2579,8 +2857,11 @@
       <c r="C88" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2590,8 +2871,11 @@
       <c r="C89" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2601,8 +2885,11 @@
       <c r="C90" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2612,8 +2899,11 @@
       <c r="C91" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2623,8 +2913,11 @@
       <c r="C92" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2634,8 +2927,11 @@
       <c r="C93" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2645,8 +2941,11 @@
       <c r="C94" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2656,8 +2955,11 @@
       <c r="C95" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2667,8 +2969,11 @@
       <c r="C96" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2678,8 +2983,11 @@
       <c r="C97" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2689,8 +2997,11 @@
       <c r="C98" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2700,8 +3011,11 @@
       <c r="C99" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2711,8 +3025,11 @@
       <c r="C100" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2722,8 +3039,11 @@
       <c r="C101" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2733,8 +3053,11 @@
       <c r="C102" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2744,8 +3067,11 @@
       <c r="C103" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2755,8 +3081,11 @@
       <c r="C104" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -2766,8 +3095,11 @@
       <c r="C105" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -2777,8 +3109,11 @@
       <c r="C106" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -2788,8 +3123,11 @@
       <c r="C107" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -2799,8 +3137,11 @@
       <c r="C108" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -2810,8 +3151,11 @@
       <c r="C109" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2821,8 +3165,11 @@
       <c r="C110" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2832,8 +3179,11 @@
       <c r="C111" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2843,8 +3193,11 @@
       <c r="C112" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2854,8 +3207,11 @@
       <c r="C113" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2865,8 +3221,11 @@
       <c r="C114" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2876,8 +3235,11 @@
       <c r="C115" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2887,8 +3249,11 @@
       <c r="C116" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2898,8 +3263,11 @@
       <c r="C117" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2909,8 +3277,11 @@
       <c r="C118" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2920,8 +3291,11 @@
       <c r="C119" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2931,8 +3305,11 @@
       <c r="C120" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2942,8 +3319,11 @@
       <c r="C121" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2953,8 +3333,11 @@
       <c r="C122" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2964,8 +3347,11 @@
       <c r="C123" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2975,8 +3361,11 @@
       <c r="C124" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2986,8 +3375,11 @@
       <c r="C125" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2997,8 +3389,11 @@
       <c r="C126" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3008,8 +3403,11 @@
       <c r="C127" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3019,8 +3417,11 @@
       <c r="C128" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3030,8 +3431,11 @@
       <c r="C129" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3041,8 +3445,11 @@
       <c r="C130" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3052,8 +3459,11 @@
       <c r="C131" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3063,8 +3473,11 @@
       <c r="C132" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3074,8 +3487,11 @@
       <c r="C133" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3085,8 +3501,11 @@
       <c r="C134" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3096,8 +3515,11 @@
       <c r="C135" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3107,8 +3529,11 @@
       <c r="C136" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3118,8 +3543,11 @@
       <c r="C137" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3129,8 +3557,11 @@
       <c r="C138" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3140,8 +3571,11 @@
       <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3151,8 +3585,11 @@
       <c r="C140" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -3162,8 +3599,11 @@
       <c r="C141" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -3173,8 +3613,11 @@
       <c r="C142" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -3184,8 +3627,11 @@
       <c r="C143" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3195,8 +3641,11 @@
       <c r="C144" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3206,8 +3655,11 @@
       <c r="C145" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3217,8 +3669,11 @@
       <c r="C146" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3228,8 +3683,11 @@
       <c r="C147" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3239,8 +3697,11 @@
       <c r="C148" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3250,8 +3711,11 @@
       <c r="C149" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3261,8 +3725,11 @@
       <c r="C150" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3272,8 +3739,11 @@
       <c r="C151" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3283,8 +3753,11 @@
       <c r="C152" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3294,8 +3767,11 @@
       <c r="C153" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3305,8 +3781,11 @@
       <c r="C154" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3316,8 +3795,11 @@
       <c r="C155" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3327,8 +3809,11 @@
       <c r="C156" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3338,8 +3823,11 @@
       <c r="C157" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3349,8 +3837,11 @@
       <c r="C158" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3360,8 +3851,11 @@
       <c r="C159" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3371,8 +3865,11 @@
       <c r="C160" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -3382,8 +3879,11 @@
       <c r="C161" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -3393,8 +3893,11 @@
       <c r="C162" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -3404,8 +3907,11 @@
       <c r="C163" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -3415,8 +3921,11 @@
       <c r="C164" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -3426,8 +3935,11 @@
       <c r="C165" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -3437,8 +3949,11 @@
       <c r="C166" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -3448,8 +3963,11 @@
       <c r="C167" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -3459,8 +3977,11 @@
       <c r="C168" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -3470,8 +3991,11 @@
       <c r="C169" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -3481,8 +4005,11 @@
       <c r="C170" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3492,8 +4019,11 @@
       <c r="C171" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -3503,8 +4033,11 @@
       <c r="C172" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -3514,8 +4047,11 @@
       <c r="C173" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -3525,8 +4061,11 @@
       <c r="C174" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -3536,8 +4075,11 @@
       <c r="C175" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -3547,8 +4089,11 @@
       <c r="C176" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -3558,8 +4103,11 @@
       <c r="C177" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -3569,8 +4117,11 @@
       <c r="C178" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -3580,8 +4131,11 @@
       <c r="C179" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -3591,8 +4145,11 @@
       <c r="C180" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3602,8 +4159,11 @@
       <c r="C181" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3613,8 +4173,11 @@
       <c r="C182" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3624,8 +4187,11 @@
       <c r="C183" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3635,8 +4201,11 @@
       <c r="C184" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3646,8 +4215,11 @@
       <c r="C185" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3657,8 +4229,11 @@
       <c r="C186" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3668,8 +4243,11 @@
       <c r="C187" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3679,8 +4257,11 @@
       <c r="C188" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3690,8 +4271,11 @@
       <c r="C189" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3701,8 +4285,11 @@
       <c r="C190" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3712,8 +4299,11 @@
       <c r="C191" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3723,8 +4313,11 @@
       <c r="C192" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3734,8 +4327,11 @@
       <c r="C193" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3745,8 +4341,11 @@
       <c r="C194" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3756,8 +4355,11 @@
       <c r="C195" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3767,8 +4369,11 @@
       <c r="C196" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3778,8 +4383,11 @@
       <c r="C197" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3789,8 +4397,11 @@
       <c r="C198" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3800,8 +4411,11 @@
       <c r="C199" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3811,8 +4425,11 @@
       <c r="C200" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3822,8 +4439,11 @@
       <c r="C201" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3833,8 +4453,11 @@
       <c r="C202" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3844,8 +4467,11 @@
       <c r="C203" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3855,8 +4481,11 @@
       <c r="C204" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3866,8 +4495,11 @@
       <c r="C205" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3877,8 +4509,11 @@
       <c r="C206" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3888,8 +4523,11 @@
       <c r="C207" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3899,8 +4537,11 @@
       <c r="C208" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3910,8 +4551,11 @@
       <c r="C209" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3921,8 +4565,11 @@
       <c r="C210" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3932,8 +4579,11 @@
       <c r="C211" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3943,13 +4593,94 @@
       <c r="C212" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C213">
-        <v>211</v>
+      <c r="D212" t="s">
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5337AE2-4DD8-43A6-AFD2-28B2861DA212}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
